--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_5_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1049572.815026322</v>
+        <v>1000596.093205316</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>820887.5102824843</v>
+        <v>820887.5102824857</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966946.907928027</v>
+        <v>6996667.357684176</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7933738.277383196</v>
+        <v>8843564.408158524</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>337.7348416040265</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.5609956070679</v>
+        <v>11.5609956070679</v>
       </c>
       <c r="H2" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>194.1776232031177</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>145.5577298436981</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -758,7 +758,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I3" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S3" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T3" t="n">
         <v>185.9745311655613</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>109.6085360990542</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.80540818138466</v>
+        <v>17.21465671820689</v>
       </c>
       <c r="R4" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>213.3014159347218</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>11.5609956070679</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S5" t="n">
-        <v>143.7358015348943</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T5" t="n">
         <v>220.4433659829895</v>
@@ -955,13 +955,13 @@
         <v>252.305926837283</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.10206975953228</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>47.34362796447564</v>
@@ -1101,13 +1101,13 @@
         <v>23.80540818138466</v>
       </c>
       <c r="R7" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>94.94617523254716</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>93.8797004772542</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S8" t="n">
-        <v>143.7358015348943</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T8" t="n">
         <v>220.4433659829895</v>
@@ -1195,7 +1195,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.10206975953228</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>23.80540818138466</v>
       </c>
       <c r="R10" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>194.7158555947865</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>13.37090701299181</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>390.8378626949542</v>
@@ -1387,10 +1387,10 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H11" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>156.363858050434</v>
+        <v>11.96994749968893</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.10206975953228</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>125.8532215944585</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>390.8378626949542</v>
@@ -1621,10 +1621,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>310.3590480718407</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>139.1563079494267</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>99.67218115413844</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>125.8532215944585</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
         <v>283.2948374677749</v>
@@ -1846,10 +1846,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>390.8378626949542</v>
@@ -1861,10 +1861,10 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H17" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>265.8541083543378</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>13.37090701299181</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>284.3089918374816</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>99.67218115413844</v>
       </c>
       <c r="W19" t="n">
-        <v>152.851901770346</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>147.6957174161628</v>
       </c>
       <c r="G20" t="n">
         <v>411.5609956070679</v>
       </c>
       <c r="H20" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>76.41021881127156</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I21" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S21" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T21" t="n">
         <v>185.9745311655613</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>99.67218115413844</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>218.5212637761713</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42.90732281924524</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>369.0957251250487</v>
@@ -2329,10 +2329,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.166289397049</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>321.5391202560178</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.94520556670598</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>167.65860777264</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2743503404815</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>158.6457250433467</v>
       </c>
     </row>
     <row r="24">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>205.5013217243044</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>271.0837804017902</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>105.8244484614345</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>52.96679720129475</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.166289397049</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>321.5391202560178</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>40.94520556670598</v>
       </c>
       <c r="S26" t="n">
-        <v>71.44798626468565</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7155395486319</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.2743503404815</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -2623,7 +2623,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>112.5503427203749</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>132.3620546020535</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2993344765234</v>
+        <v>271.0837804017902</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
@@ -2794,25 +2794,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>255.0959191536432</v>
+        <v>235.5054659633098</v>
       </c>
       <c r="H29" t="n">
-        <v>321.5391202560178</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>141.1469468886812</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.94520556670598</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2743503404815</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>126.6726125730216</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>284.2993344765234</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>244.9123973224285</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
         <v>390.8378626949542</v>
@@ -3043,7 +3043,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>60.73781377856004</v>
+        <v>411.166289397049</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>40.94520556670598</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>167.65860777264</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7155395486319</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>252.2743503404815</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>171.4877358246661</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.8821694259198</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>205.5013217243044</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>137.6260554515069</v>
       </c>
       <c r="W34" t="n">
-        <v>182.032007585967</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,19 +3268,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>120.5614142706242</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.166289397049</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.94520556670597</v>
+        <v>40.94520556670598</v>
       </c>
       <c r="S35" t="n">
-        <v>167.65860777264</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7155395486319</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2743503404815</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>347.5938245063545</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>378.2098390737216</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>94.42347322613411</v>
       </c>
       <c r="G37" t="n">
-        <v>166.8821694259198</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>154.6814885678763</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.27378563525393</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.2993344765234</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>20.35967294864887</v>
+        <v>161.5066198373301</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>141.1469468886812</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.2993344765234</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>270.0792833930417</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>42.14384093821216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>258.5296825498461</v>
+        <v>17.48593355982516</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
@@ -3754,13 +3754,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>411.166289397049</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>321.5391202560178</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>141.1469468886812</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.94520556670597</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>167.65860777264</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.2743503404815</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2993344765234</v>
+        <v>271.0837804017902</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>25.09759010278275</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3988,16 +3988,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.166289397049</v>
+        <v>346.7388266378198</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>321.5391202560179</v>
       </c>
       <c r="I44" t="n">
-        <v>141.1469468886812</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.94520556670597</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>167.65860777264</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7155395486319</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>15.75509885189562</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>59.65657413961327</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.5013217243044</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2993344765234</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>79.45248810697964</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.292672113454</v>
+        <v>454.5762361303055</v>
       </c>
       <c r="C2" t="n">
-        <v>2135.146367462922</v>
+        <v>72.64247746311285</v>
       </c>
       <c r="D2" t="n">
-        <v>1762.322402690145</v>
+        <v>72.64247746311285</v>
       </c>
       <c r="E2" t="n">
-        <v>1367.536682796252</v>
+        <v>72.64247746311285</v>
       </c>
       <c r="F2" t="n">
-        <v>953.3854921064224</v>
+        <v>62.53169081368724</v>
       </c>
       <c r="G2" t="n">
-        <v>537.6673147255457</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H2" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I2" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J2" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532634</v>
       </c>
       <c r="K2" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481632</v>
       </c>
       <c r="L2" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M2" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N2" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O2" t="n">
         <v>2124.896977382889</v>
@@ -4357,25 +4357,25 @@
         <v>2476.292672113454</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.292672113454</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T2" t="n">
-        <v>2476.292672113454</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="U2" t="n">
-        <v>2476.292672113454</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="V2" t="n">
-        <v>2476.292672113454</v>
+        <v>1624.191771550993</v>
       </c>
       <c r="W2" t="n">
-        <v>2476.292672113454</v>
+        <v>1624.191771550993</v>
       </c>
       <c r="X2" t="n">
-        <v>2476.292672113454</v>
+        <v>1242.161631072487</v>
       </c>
       <c r="Y2" t="n">
-        <v>2476.292672113454</v>
+        <v>848.6197756483247</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>920.8593958421042</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C3" t="n">
-        <v>759.155723083059</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D3" t="n">
-        <v>620.3170860732712</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E3" t="n">
-        <v>473.2890761301423</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F3" t="n">
-        <v>338.5952780800167</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G3" t="n">
         <v>210.0732042050868</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1289883137697</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I3" t="n">
         <v>50.85391747321462</v>
@@ -4412,22 +4412,22 @@
         <v>130.2226992162549</v>
       </c>
       <c r="K3" t="n">
-        <v>130.2226992162549</v>
+        <v>392.3832078845234</v>
       </c>
       <c r="L3" t="n">
-        <v>539.9733320966807</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M3" t="n">
-        <v>1076.269508877781</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N3" t="n">
-        <v>1640.154752666466</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O3" t="n">
-        <v>2080.491355241773</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P3" t="n">
-        <v>2421.221181382059</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q3" t="n">
         <v>2542.695873660731</v>
@@ -4436,7 +4436,7 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S3" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T3" t="n">
         <v>2158.909856151447</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.3900938121795</v>
+        <v>420.3007476789788</v>
       </c>
       <c r="C4" t="n">
-        <v>348.3900938121795</v>
+        <v>250.6847781406591</v>
       </c>
       <c r="D4" t="n">
-        <v>348.3900938121795</v>
+        <v>250.6847781406591</v>
       </c>
       <c r="E4" t="n">
-        <v>348.3900938121795</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="F4" t="n">
-        <v>348.3900938121795</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="G4" t="n">
-        <v>348.3900938121795</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="H4" t="n">
-        <v>237.6744007828319</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="I4" t="n">
-        <v>98.6757639019779</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="J4" t="n">
         <v>50.85391747321462</v>
@@ -4497,43 +4497,43 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M4" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N4" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O4" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P4" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q4" t="n">
-        <v>700.8242228045381</v>
+        <v>707.4815475148188</v>
       </c>
       <c r="R4" t="n">
-        <v>559.0838802267906</v>
+        <v>707.4815475148188</v>
       </c>
       <c r="S4" t="n">
-        <v>348.3900938121795</v>
+        <v>707.4815475148188</v>
       </c>
       <c r="T4" t="n">
-        <v>348.3900938121795</v>
+        <v>707.4815475148188</v>
       </c>
       <c r="U4" t="n">
-        <v>348.3900938121795</v>
+        <v>420.3007476789788</v>
       </c>
       <c r="V4" t="n">
-        <v>348.3900938121795</v>
+        <v>420.3007476789788</v>
       </c>
       <c r="W4" t="n">
-        <v>348.3900938121795</v>
+        <v>420.3007476789788</v>
       </c>
       <c r="X4" t="n">
-        <v>348.3900938121795</v>
+        <v>420.3007476789788</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.3900938121795</v>
+        <v>420.3007476789788</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.85391747321462</v>
+        <v>1032.745389945295</v>
       </c>
       <c r="C5" t="n">
-        <v>50.85391747321462</v>
+        <v>650.8116312781019</v>
       </c>
       <c r="D5" t="n">
-        <v>50.85391747321462</v>
+        <v>277.9876665053255</v>
       </c>
       <c r="E5" t="n">
-        <v>50.85391747321462</v>
+        <v>277.9876665053255</v>
       </c>
       <c r="F5" t="n">
-        <v>50.85391747321462</v>
+        <v>62.53169081368724</v>
       </c>
       <c r="G5" t="n">
         <v>50.85391747321462</v>
@@ -4573,7 +4573,7 @@
         <v>443.1860302481634</v>
       </c>
       <c r="L5" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907115</v>
       </c>
       <c r="M5" t="n">
         <v>1310.379159876956</v>
@@ -4591,28 +4591,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R5" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S5" t="n">
-        <v>2397.508195342656</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.838128693171</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="U5" t="n">
-        <v>1919.98365714036</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="V5" t="n">
-        <v>1583.004383036301</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="W5" t="n">
-        <v>1220.469452893902</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="X5" t="n">
-        <v>838.4393124153958</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="Y5" t="n">
-        <v>444.8974569912338</v>
+        <v>1426.788929463314</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J6" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K6" t="n">
-        <v>392.3832078845233</v>
+        <v>251.6973914949265</v>
       </c>
       <c r="L6" t="n">
-        <v>802.1338407649491</v>
+        <v>661.4480243753522</v>
       </c>
       <c r="M6" t="n">
-        <v>1338.430017546049</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N6" t="n">
-        <v>1902.315261334734</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O6" t="n">
-        <v>2342.651863910041</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P6" t="n">
         <v>2542.695873660731</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.9505818408994</v>
+        <v>421.3636266125349</v>
       </c>
       <c r="C7" t="n">
-        <v>115.9505818408994</v>
+        <v>251.7476570742152</v>
       </c>
       <c r="D7" t="n">
-        <v>115.9505818408994</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="E7" t="n">
-        <v>115.9505818408994</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="F7" t="n">
-        <v>115.9505818408994</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="G7" t="n">
-        <v>115.9505818408994</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="H7" t="n">
-        <v>115.9505818408994</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="I7" t="n">
         <v>98.67576390197789</v>
@@ -4749,28 +4749,28 @@
         <v>700.8242228045381</v>
       </c>
       <c r="R7" t="n">
-        <v>559.0838802267906</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="S7" t="n">
-        <v>348.3900938121795</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="T7" t="n">
-        <v>115.9505818408994</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="U7" t="n">
-        <v>115.9505818408994</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="V7" t="n">
-        <v>115.9505818408994</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="W7" t="n">
-        <v>115.9505818408994</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="X7" t="n">
-        <v>115.9505818408994</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="Y7" t="n">
-        <v>115.9505818408994</v>
+        <v>604.9189952969147</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.85391747321462</v>
+        <v>313.7359753627293</v>
       </c>
       <c r="C8" t="n">
-        <v>50.85391747321462</v>
+        <v>313.7359753627293</v>
       </c>
       <c r="D8" t="n">
-        <v>50.85391747321462</v>
+        <v>313.7359753627293</v>
       </c>
       <c r="E8" t="n">
-        <v>50.85391747321462</v>
+        <v>313.7359753627293</v>
       </c>
       <c r="F8" t="n">
-        <v>50.85391747321462</v>
+        <v>303.6251887133037</v>
       </c>
       <c r="G8" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="H8" t="n">
-        <v>50.85391747321462</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I8" t="n">
         <v>50.85391747321462</v>
@@ -4810,13 +4810,13 @@
         <v>443.1860302481634</v>
       </c>
       <c r="L8" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M8" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N8" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O8" t="n">
         <v>2124.896977382889</v>
@@ -4828,28 +4828,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R8" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S8" t="n">
-        <v>2397.508195342656</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T8" t="n">
-        <v>2174.838128693171</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="U8" t="n">
-        <v>1919.98365714036</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="V8" t="n">
-        <v>1583.004383036301</v>
+        <v>1483.351510783417</v>
       </c>
       <c r="W8" t="n">
-        <v>1220.469452893902</v>
+        <v>1483.351510783417</v>
       </c>
       <c r="X8" t="n">
-        <v>838.4393124153958</v>
+        <v>1101.32137030491</v>
       </c>
       <c r="Y8" t="n">
-        <v>444.8974569912338</v>
+        <v>707.7795148807485</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>338.5952780800167</v>
       </c>
       <c r="G9" t="n">
-        <v>210.0732042050872</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H9" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137697</v>
       </c>
       <c r="I9" t="n">
         <v>50.85391747321462</v>
@@ -4886,22 +4886,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K9" t="n">
-        <v>251.6973914949265</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L9" t="n">
-        <v>661.4480243753522</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M9" t="n">
-        <v>1197.744201156453</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N9" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O9" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P9" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q9" t="n">
         <v>2542.695873660731</v>
@@ -4910,7 +4910,7 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S9" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T9" t="n">
         <v>2158.909856151447</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C10" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D10" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E10" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F10" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G10" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H10" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I10" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J10" t="n">
         <v>50.85391747321462</v>
@@ -4986,28 +4986,28 @@
         <v>700.8242228045381</v>
       </c>
       <c r="R10" t="n">
-        <v>559.0838802267906</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="S10" t="n">
-        <v>348.3900938121795</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="T10" t="n">
-        <v>115.9505818408994</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="U10" t="n">
-        <v>115.9505818408994</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="V10" t="n">
-        <v>115.9505818408994</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="W10" t="n">
-        <v>115.9505818408994</v>
+        <v>504.1415403855618</v>
       </c>
       <c r="X10" t="n">
-        <v>115.9505818408994</v>
+        <v>272.8890762809376</v>
       </c>
       <c r="Y10" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2148.652334142711</v>
+        <v>1287.599861498106</v>
       </c>
       <c r="C11" t="n">
-        <v>2135.146367462922</v>
+        <v>1287.599861498106</v>
       </c>
       <c r="D11" t="n">
-        <v>1762.322402690145</v>
+        <v>1287.599861498106</v>
       </c>
       <c r="E11" t="n">
-        <v>1367.536682796252</v>
+        <v>892.8141416042129</v>
       </c>
       <c r="F11" t="n">
-        <v>953.3854921064224</v>
+        <v>478.6629509143832</v>
       </c>
       <c r="G11" t="n">
-        <v>537.6673147255457</v>
+        <v>62.94477353350646</v>
       </c>
       <c r="H11" t="n">
-        <v>208.797208433249</v>
+        <v>62.94477353350646</v>
       </c>
       <c r="I11" t="n">
         <v>50.85391747321462</v>
@@ -5065,28 +5065,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R11" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S11" t="n">
-        <v>2542.695873660731</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T11" t="n">
-        <v>2542.695873660731</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="U11" t="n">
-        <v>2542.695873660731</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="V11" t="n">
-        <v>2542.695873660731</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="W11" t="n">
-        <v>2542.695873660731</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="X11" t="n">
-        <v>2542.695873660731</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="Y11" t="n">
-        <v>2542.695873660731</v>
+        <v>1681.643401016125</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J12" t="n">
-        <v>68.10001809715379</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K12" t="n">
-        <v>68.10001809715379</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L12" t="n">
-        <v>477.8506509775796</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.14682775868</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N12" t="n">
-        <v>1578.032071547365</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O12" t="n">
-        <v>2018.368674122672</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P12" t="n">
-        <v>2359.098500262958</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.69587366073</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C13" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D13" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E13" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F13" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G13" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H13" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I13" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J13" t="n">
         <v>50.85391747321462</v>
@@ -5220,31 +5220,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q13" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R13" t="n">
-        <v>559.0838802267906</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S13" t="n">
-        <v>348.3900938121795</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T13" t="n">
-        <v>115.9505818408994</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U13" t="n">
-        <v>115.9505818408994</v>
+        <v>597.7456233973928</v>
       </c>
       <c r="V13" t="n">
-        <v>115.9505818408994</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W13" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X13" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1614.548551496907</v>
+        <v>1589.002993389169</v>
       </c>
       <c r="C14" t="n">
-        <v>1232.614792829714</v>
+        <v>1589.002993389169</v>
       </c>
       <c r="D14" t="n">
-        <v>859.7908280569375</v>
+        <v>1589.002993389169</v>
       </c>
       <c r="E14" t="n">
-        <v>465.0051081630443</v>
+        <v>1194.217273495275</v>
       </c>
       <c r="F14" t="n">
-        <v>50.85391747321462</v>
+        <v>780.0660828054456</v>
       </c>
       <c r="G14" t="n">
-        <v>50.85391747321462</v>
+        <v>364.3479054245689</v>
       </c>
       <c r="H14" t="n">
         <v>50.85391747321462</v>
@@ -5308,22 +5308,22 @@
         <v>2542.695873660731</v>
       </c>
       <c r="T14" t="n">
-        <v>2402.133946439088</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U14" t="n">
-        <v>2402.133946439088</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="V14" t="n">
-        <v>2402.133946439088</v>
+        <v>1983.046532907188</v>
       </c>
       <c r="W14" t="n">
-        <v>2402.133946439088</v>
+        <v>1983.046532907188</v>
       </c>
       <c r="X14" t="n">
-        <v>2402.133946439088</v>
+        <v>1983.046532907188</v>
       </c>
       <c r="Y14" t="n">
-        <v>2008.592091014926</v>
+        <v>1983.046532907188</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K15" t="n">
-        <v>313.014426141483</v>
+        <v>68.10001809715379</v>
       </c>
       <c r="L15" t="n">
-        <v>722.7650590219088</v>
+        <v>477.8506509775796</v>
       </c>
       <c r="M15" t="n">
-        <v>1259.061235803009</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N15" t="n">
-        <v>1822.946479591694</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O15" t="n">
-        <v>2263.283082167001</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P15" t="n">
-        <v>2542.69587366073</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q15" t="n">
         <v>2542.69587366073</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.5328883359807</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C16" t="n">
         <v>50.85391747321462</v>
@@ -5466,22 +5466,22 @@
         <v>724.8700896544216</v>
       </c>
       <c r="T16" t="n">
-        <v>724.8700896544216</v>
+        <v>597.7456233973928</v>
       </c>
       <c r="U16" t="n">
-        <v>437.6892898185816</v>
+        <v>597.7456233973928</v>
       </c>
       <c r="V16" t="n">
-        <v>437.6892898185816</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W16" t="n">
-        <v>151.5328883359807</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X16" t="n">
-        <v>151.5328883359807</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.5328883359807</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2135.146367462922</v>
+        <v>1657.442764105007</v>
       </c>
       <c r="C17" t="n">
-        <v>2135.146367462922</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="D17" t="n">
-        <v>1762.322402690145</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E17" t="n">
-        <v>1367.536682796252</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F17" t="n">
-        <v>953.3854921064224</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G17" t="n">
-        <v>537.6673147255457</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H17" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I17" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J17" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K17" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L17" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M17" t="n">
         <v>1310.379159876956</v>
@@ -5545,22 +5545,22 @@
         <v>2542.695873660731</v>
       </c>
       <c r="T17" t="n">
-        <v>2542.695873660731</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U17" t="n">
-        <v>2542.695873660731</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="V17" t="n">
-        <v>2542.695873660731</v>
+        <v>2051.486303623026</v>
       </c>
       <c r="W17" t="n">
-        <v>2542.695873660731</v>
+        <v>2051.486303623026</v>
       </c>
       <c r="X17" t="n">
-        <v>2529.189906980941</v>
+        <v>2051.486303623026</v>
       </c>
       <c r="Y17" t="n">
-        <v>2529.189906980941</v>
+        <v>2051.486303623026</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J18" t="n">
-        <v>68.10001809715379</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K18" t="n">
-        <v>68.10001809715379</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L18" t="n">
-        <v>477.8506509775796</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.14682775868</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N18" t="n">
-        <v>1578.032071547365</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O18" t="n">
-        <v>2018.368674122672</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P18" t="n">
         <v>2359.098500262958</v>
@@ -5703,13 +5703,13 @@
         <v>724.8700896544216</v>
       </c>
       <c r="T19" t="n">
-        <v>492.4305776831415</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U19" t="n">
-        <v>205.2497778473015</v>
+        <v>437.6892898185816</v>
       </c>
       <c r="V19" t="n">
-        <v>205.2497778473015</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W19" t="n">
         <v>50.85391747321462</v>
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2144.256161357338</v>
+        <v>1010.545408097644</v>
       </c>
       <c r="C20" t="n">
-        <v>1762.322402690145</v>
+        <v>1010.545408097644</v>
       </c>
       <c r="D20" t="n">
-        <v>1762.322402690145</v>
+        <v>1010.545408097644</v>
       </c>
       <c r="E20" t="n">
-        <v>1367.536682796252</v>
+        <v>615.7596882037508</v>
       </c>
       <c r="F20" t="n">
-        <v>953.3854921064224</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G20" t="n">
-        <v>537.6673147255457</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H20" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I20" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J20" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532634</v>
       </c>
       <c r="K20" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481632</v>
       </c>
       <c r="L20" t="n">
-        <v>850.7433998907118</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M20" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N20" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O20" t="n">
         <v>2124.896977382889</v>
@@ -5776,28 +5776,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R20" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S20" t="n">
-        <v>2399.110632910149</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T20" t="n">
-        <v>2399.110632910149</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U20" t="n">
-        <v>2144.256161357338</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V20" t="n">
-        <v>2144.256161357338</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W20" t="n">
-        <v>2144.256161357338</v>
+        <v>2180.160943518332</v>
       </c>
       <c r="X20" t="n">
-        <v>2144.256161357338</v>
+        <v>1798.130803039825</v>
       </c>
       <c r="Y20" t="n">
-        <v>2144.256161357338</v>
+        <v>1404.588947615663</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J21" t="n">
-        <v>68.10001809715379</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K21" t="n">
-        <v>68.10001809715379</v>
+        <v>392.3832078845234</v>
       </c>
       <c r="L21" t="n">
-        <v>477.8506509775796</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M21" t="n">
-        <v>1014.14682775868</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N21" t="n">
-        <v>1578.032071547365</v>
+        <v>1578.032071547364</v>
       </c>
       <c r="O21" t="n">
         <v>2018.368674122672</v>
@@ -5919,40 +5919,40 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M22" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N22" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O22" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T22" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="U22" t="n">
-        <v>437.6892898185816</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="V22" t="n">
-        <v>337.0103189558155</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="W22" t="n">
-        <v>50.85391747321462</v>
+        <v>504.1415403855618</v>
       </c>
       <c r="X22" t="n">
-        <v>50.85391747321462</v>
+        <v>272.8890762809376</v>
       </c>
       <c r="Y22" t="n">
         <v>50.85391747321462</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2363.779551048213</v>
+        <v>1152.375117451748</v>
       </c>
       <c r="C23" t="n">
-        <v>1981.845792381021</v>
+        <v>1152.375117451748</v>
       </c>
       <c r="D23" t="n">
-        <v>1609.021827608244</v>
+        <v>779.5511526789712</v>
       </c>
       <c r="E23" t="n">
-        <v>1214.236107714351</v>
+        <v>384.7654327850781</v>
       </c>
       <c r="F23" t="n">
-        <v>800.0849170245216</v>
+        <v>384.7654327850781</v>
       </c>
       <c r="G23" t="n">
         <v>384.7654327850781</v>
@@ -6013,28 +6013,28 @@
         <v>2998.922131374218</v>
       </c>
       <c r="R23" t="n">
-        <v>2998.922131374218</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="S23" t="n">
-        <v>2998.922131374218</v>
+        <v>2788.211208809223</v>
       </c>
       <c r="T23" t="n">
-        <v>2998.922131374218</v>
+        <v>2788.211208809223</v>
       </c>
       <c r="U23" t="n">
-        <v>2744.099555272722</v>
+        <v>2788.211208809223</v>
       </c>
       <c r="V23" t="n">
-        <v>2407.120281168663</v>
+        <v>2451.231934705164</v>
       </c>
       <c r="W23" t="n">
-        <v>2407.120281168663</v>
+        <v>2088.697004562765</v>
       </c>
       <c r="X23" t="n">
-        <v>2407.120281168663</v>
+        <v>1706.666864084258</v>
       </c>
       <c r="Y23" t="n">
-        <v>2407.120281168663</v>
+        <v>1546.418656969767</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>59.97844262748436</v>
       </c>
       <c r="J24" t="n">
-        <v>59.97844262748436</v>
+        <v>159.1001868499821</v>
       </c>
       <c r="K24" t="n">
-        <v>355.8999103787194</v>
+        <v>455.0216546012171</v>
       </c>
       <c r="L24" t="n">
-        <v>811.0463191073202</v>
+        <v>910.1680633298179</v>
       </c>
       <c r="M24" t="n">
-        <v>1400.317225122822</v>
+        <v>910.1680633298179</v>
       </c>
       <c r="N24" t="n">
-        <v>1653.386929385486</v>
+        <v>1443.101369738137</v>
       </c>
       <c r="O24" t="n">
-        <v>2143.467692195839</v>
+        <v>1933.18213254849</v>
       </c>
       <c r="P24" t="n">
-        <v>2524.121592447384</v>
+        <v>2313.836032800035</v>
       </c>
       <c r="Q24" t="n">
         <v>2524.121592447384</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2500.896287754748</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="C25" t="n">
-        <v>2331.280318216428</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="D25" t="n">
-        <v>2178.208425044191</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="E25" t="n">
-        <v>2178.208425044191</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="F25" t="n">
-        <v>2178.208425044191</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="G25" t="n">
-        <v>2178.208425044191</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H25" t="n">
-        <v>2178.208425044191</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I25" t="n">
-        <v>2178.208425044191</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J25" t="n">
-        <v>2178.208425044191</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="K25" t="n">
-        <v>2251.883478212731</v>
+        <v>133.6534957960239</v>
       </c>
       <c r="L25" t="n">
-        <v>2403.767469439469</v>
+        <v>285.5374870227621</v>
       </c>
       <c r="M25" t="n">
-        <v>2575.825289534539</v>
+        <v>457.5953071178318</v>
       </c>
       <c r="N25" t="n">
-        <v>2747.026416705145</v>
+        <v>628.7964342884372</v>
       </c>
       <c r="O25" t="n">
-        <v>2894.239814031095</v>
+        <v>776.0098316143881</v>
       </c>
       <c r="P25" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="Q25" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="R25" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="S25" t="n">
-        <v>2791.345038723406</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="T25" t="n">
-        <v>2791.345038723406</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="U25" t="n">
-        <v>2791.345038723406</v>
+        <v>606.8701485516626</v>
       </c>
       <c r="V25" t="n">
-        <v>2791.345038723406</v>
+        <v>346.1348441100852</v>
       </c>
       <c r="W25" t="n">
-        <v>2791.345038723406</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="X25" t="n">
-        <v>2684.451656439128</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="Y25" t="n">
-        <v>2684.451656439128</v>
+        <v>59.97844262748436</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>836.6979211885701</v>
+        <v>1621.196417046034</v>
       </c>
       <c r="C26" t="n">
-        <v>454.7641625213775</v>
+        <v>1621.196417046034</v>
       </c>
       <c r="D26" t="n">
-        <v>454.7641625213775</v>
+        <v>1248.372452273258</v>
       </c>
       <c r="E26" t="n">
-        <v>59.97844262748436</v>
+        <v>853.5867323793648</v>
       </c>
       <c r="F26" t="n">
-        <v>59.97844262748436</v>
+        <v>800.0849170245216</v>
       </c>
       <c r="G26" t="n">
-        <v>59.97844262748436</v>
+        <v>384.7654327850781</v>
       </c>
       <c r="H26" t="n">
         <v>59.97844262748436</v>
@@ -6250,28 +6250,28 @@
         <v>2998.922131374218</v>
       </c>
       <c r="R26" t="n">
-        <v>2998.922131374218</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="S26" t="n">
-        <v>2926.752448278576</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="T26" t="n">
-        <v>2705.827660855716</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="U26" t="n">
-        <v>2705.827660855716</v>
+        <v>2702.740761770999</v>
       </c>
       <c r="V26" t="n">
-        <v>2368.848386751657</v>
+        <v>2365.76148766694</v>
       </c>
       <c r="W26" t="n">
-        <v>2006.313456609258</v>
+        <v>2003.226557524541</v>
       </c>
       <c r="X26" t="n">
-        <v>1624.283316130751</v>
+        <v>1621.196417046034</v>
       </c>
       <c r="Y26" t="n">
-        <v>1230.741460706589</v>
+        <v>1621.196417046034</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>59.97844262748436</v>
       </c>
       <c r="K27" t="n">
-        <v>355.8999103787194</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="L27" t="n">
-        <v>811.0463191073202</v>
+        <v>235.5684072479396</v>
       </c>
       <c r="M27" t="n">
-        <v>1400.317225122822</v>
+        <v>824.839313263442</v>
       </c>
       <c r="N27" t="n">
-        <v>2018.579281597517</v>
+        <v>1443.101369738137</v>
       </c>
       <c r="O27" t="n">
-        <v>2508.66004440787</v>
+        <v>1933.18213254849</v>
       </c>
       <c r="P27" t="n">
-        <v>2508.66004440787</v>
+        <v>2313.836032800035</v>
       </c>
       <c r="Q27" t="n">
         <v>2524.121592447384</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.66565749655</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="C28" t="n">
-        <v>173.66565749655</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="D28" t="n">
         <v>59.97844262748436</v>
@@ -6408,28 +6408,28 @@
         <v>880.6921489575113</v>
       </c>
       <c r="R28" t="n">
-        <v>746.993103904932</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="S28" t="n">
-        <v>746.993103904932</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="T28" t="n">
-        <v>746.993103904932</v>
+        <v>880.6921489575113</v>
       </c>
       <c r="U28" t="n">
-        <v>459.8220589791508</v>
+        <v>606.8701485516626</v>
       </c>
       <c r="V28" t="n">
-        <v>459.8220589791508</v>
+        <v>346.1348441100852</v>
       </c>
       <c r="W28" t="n">
-        <v>173.66565749655</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="X28" t="n">
-        <v>173.66565749655</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="Y28" t="n">
-        <v>173.66565749655</v>
+        <v>59.97844262748436</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1552.620436686419</v>
+        <v>1466.771665811131</v>
       </c>
       <c r="C29" t="n">
-        <v>1552.620436686419</v>
+        <v>1084.837907143939</v>
       </c>
       <c r="D29" t="n">
-        <v>1179.796471913642</v>
+        <v>712.0139423711623</v>
       </c>
       <c r="E29" t="n">
-        <v>785.0107520197491</v>
+        <v>712.0139423711623</v>
       </c>
       <c r="F29" t="n">
-        <v>785.0107520197491</v>
+        <v>297.8627516813327</v>
       </c>
       <c r="G29" t="n">
-        <v>527.3381064100085</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H29" t="n">
-        <v>202.5511162524148</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I29" t="n">
         <v>59.97844262748436</v>
@@ -6487,28 +6487,28 @@
         <v>2998.922131374218</v>
       </c>
       <c r="R29" t="n">
-        <v>2957.563337872495</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="S29" t="n">
-        <v>2957.563337872495</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="T29" t="n">
-        <v>2957.563337872495</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="U29" t="n">
-        <v>2702.740761770999</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="V29" t="n">
-        <v>2702.740761770999</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="W29" t="n">
-        <v>2340.2058316286</v>
+        <v>2636.387201231819</v>
       </c>
       <c r="X29" t="n">
-        <v>2340.2058316286</v>
+        <v>2254.357060753312</v>
       </c>
       <c r="Y29" t="n">
-        <v>1946.663976204438</v>
+        <v>1860.815205329151</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>59.97844262748436</v>
       </c>
       <c r="J30" t="n">
-        <v>59.97844262748436</v>
+        <v>159.1001868499821</v>
       </c>
       <c r="K30" t="n">
-        <v>59.97844262748436</v>
+        <v>455.0216546012171</v>
       </c>
       <c r="L30" t="n">
-        <v>445.8539668952882</v>
+        <v>910.1680633298179</v>
       </c>
       <c r="M30" t="n">
-        <v>1035.124872910791</v>
+        <v>1499.43896934532</v>
       </c>
       <c r="N30" t="n">
-        <v>1653.386929385486</v>
+        <v>1500.787390039862</v>
       </c>
       <c r="O30" t="n">
-        <v>2143.467692195839</v>
+        <v>1990.868152850215</v>
       </c>
       <c r="P30" t="n">
-        <v>2524.121592447384</v>
+        <v>2313.836032800035</v>
       </c>
       <c r="Q30" t="n">
         <v>2524.121592447384</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>187.9305765396274</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="C31" t="n">
-        <v>187.9305765396274</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="D31" t="n">
-        <v>187.9305765396274</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="E31" t="n">
         <v>59.97844262748436</v>
@@ -6657,16 +6657,16 @@
         <v>593.5211040317301</v>
       </c>
       <c r="V31" t="n">
-        <v>593.5211040317301</v>
+        <v>346.1348441100852</v>
       </c>
       <c r="W31" t="n">
-        <v>593.5211040317301</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="X31" t="n">
-        <v>593.5211040317301</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="Y31" t="n">
-        <v>371.4859452240072</v>
+        <v>59.97844262748436</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1312.20043892745</v>
+        <v>2038.99256089062</v>
       </c>
       <c r="C32" t="n">
-        <v>930.2666802602578</v>
+        <v>1657.058802223427</v>
       </c>
       <c r="D32" t="n">
-        <v>930.2666802602578</v>
+        <v>1284.234837450651</v>
       </c>
       <c r="E32" t="n">
-        <v>535.4809603663646</v>
+        <v>889.4491175567575</v>
       </c>
       <c r="F32" t="n">
-        <v>121.3297696765349</v>
+        <v>475.2979268669278</v>
       </c>
       <c r="G32" t="n">
         <v>59.97844262748436</v>
@@ -6724,28 +6724,28 @@
         <v>2998.922131374218</v>
       </c>
       <c r="R32" t="n">
-        <v>2957.563337872495</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="S32" t="n">
-        <v>2957.563337872495</v>
+        <v>2829.570002310946</v>
       </c>
       <c r="T32" t="n">
-        <v>2736.638550449635</v>
+        <v>2829.570002310946</v>
       </c>
       <c r="U32" t="n">
-        <v>2481.815974348138</v>
+        <v>2574.747426209449</v>
       </c>
       <c r="V32" t="n">
-        <v>2481.815974348138</v>
+        <v>2574.747426209449</v>
       </c>
       <c r="W32" t="n">
-        <v>2481.815974348138</v>
+        <v>2212.21249606705</v>
       </c>
       <c r="X32" t="n">
-        <v>2099.785833869631</v>
+        <v>2212.21249606705</v>
       </c>
       <c r="Y32" t="n">
-        <v>1706.24397844547</v>
+        <v>2038.99256089062</v>
       </c>
     </row>
     <row r="33">
@@ -6791,10 +6791,10 @@
         <v>1499.43896934532</v>
       </c>
       <c r="N33" t="n">
-        <v>2117.701025820015</v>
+        <v>1653.386929385486</v>
       </c>
       <c r="O33" t="n">
-        <v>2524.121592447384</v>
+        <v>2143.467692195839</v>
       </c>
       <c r="P33" t="n">
         <v>2524.121592447384</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.97844262748436</v>
+        <v>534.098838678914</v>
       </c>
       <c r="C34" t="n">
-        <v>59.97844262748436</v>
+        <v>534.098838678914</v>
       </c>
       <c r="D34" t="n">
-        <v>59.97844262748436</v>
+        <v>381.0269455066767</v>
       </c>
       <c r="E34" t="n">
-        <v>59.97844262748436</v>
+        <v>381.0269455066767</v>
       </c>
       <c r="F34" t="n">
-        <v>59.97844262748436</v>
+        <v>228.5462905324539</v>
       </c>
       <c r="G34" t="n">
         <v>59.97844262748436</v>
@@ -6885,25 +6885,25 @@
         <v>880.6921489575113</v>
       </c>
       <c r="S34" t="n">
-        <v>880.6921489575113</v>
+        <v>673.1150563066988</v>
       </c>
       <c r="T34" t="n">
-        <v>880.6921489575113</v>
+        <v>673.1150563066988</v>
       </c>
       <c r="U34" t="n">
-        <v>880.6921489575113</v>
+        <v>673.1150563066988</v>
       </c>
       <c r="V34" t="n">
-        <v>880.6921489575113</v>
+        <v>534.098838678914</v>
       </c>
       <c r="W34" t="n">
-        <v>696.8214342242113</v>
+        <v>534.098838678914</v>
       </c>
       <c r="X34" t="n">
-        <v>465.5689701195871</v>
+        <v>534.098838678914</v>
       </c>
       <c r="Y34" t="n">
-        <v>243.5338113118642</v>
+        <v>534.098838678914</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>454.7641625213775</v>
+        <v>1787.947802451807</v>
       </c>
       <c r="C35" t="n">
-        <v>454.7641625213775</v>
+        <v>1406.014043784615</v>
       </c>
       <c r="D35" t="n">
-        <v>454.7641625213775</v>
+        <v>1284.234837450651</v>
       </c>
       <c r="E35" t="n">
-        <v>59.97844262748436</v>
+        <v>889.4491175567575</v>
       </c>
       <c r="F35" t="n">
-        <v>59.97844262748436</v>
+        <v>475.2979268669278</v>
       </c>
       <c r="G35" t="n">
         <v>59.97844262748436</v>
@@ -6937,22 +6937,22 @@
         <v>59.97844262748436</v>
       </c>
       <c r="J35" t="n">
-        <v>197.2356248381973</v>
+        <v>197.2356248381975</v>
       </c>
       <c r="K35" t="n">
-        <v>535.1817785951594</v>
+        <v>535.1817785951596</v>
       </c>
       <c r="L35" t="n">
         <v>1004.403872472887</v>
       </c>
       <c r="M35" t="n">
-        <v>1532.65351969111</v>
+        <v>1532.653519691109</v>
       </c>
       <c r="N35" t="n">
-        <v>2048.179970075088</v>
+        <v>2048.179970075087</v>
       </c>
       <c r="O35" t="n">
-        <v>2482.73398924193</v>
+        <v>2482.733989241929</v>
       </c>
       <c r="P35" t="n">
         <v>2821.458330977218</v>
@@ -6964,25 +6964,25 @@
         <v>2957.563337872495</v>
       </c>
       <c r="S35" t="n">
-        <v>2788.211208809223</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="T35" t="n">
-        <v>2567.286421386362</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="U35" t="n">
-        <v>2312.463845284866</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="V35" t="n">
-        <v>1975.484571180807</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="W35" t="n">
-        <v>1624.379697942065</v>
+        <v>2957.563337872495</v>
       </c>
       <c r="X35" t="n">
-        <v>1242.349557463559</v>
+        <v>2575.533197393988</v>
       </c>
       <c r="Y35" t="n">
-        <v>848.8077020393966</v>
+        <v>2181.991341969826</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>59.97844262748436</v>
       </c>
       <c r="J36" t="n">
-        <v>59.97844262748436</v>
+        <v>159.1001868499821</v>
       </c>
       <c r="K36" t="n">
-        <v>59.97844262748436</v>
+        <v>455.0216546012171</v>
       </c>
       <c r="L36" t="n">
-        <v>515.1248513560853</v>
+        <v>910.1680633298179</v>
       </c>
       <c r="M36" t="n">
-        <v>1104.395757371588</v>
+        <v>1441.752949043595</v>
       </c>
       <c r="N36" t="n">
-        <v>1653.386929385486</v>
+        <v>1443.101369738137</v>
       </c>
       <c r="O36" t="n">
-        <v>2143.467692195839</v>
+        <v>1933.18213254849</v>
       </c>
       <c r="P36" t="n">
-        <v>2524.121592447384</v>
+        <v>2313.836032800035</v>
       </c>
       <c r="Q36" t="n">
         <v>2524.121592447384</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>619.9568445159339</v>
+        <v>307.3647025491293</v>
       </c>
       <c r="C37" t="n">
-        <v>619.9568445159339</v>
+        <v>307.3647025491293</v>
       </c>
       <c r="D37" t="n">
-        <v>466.8849513436966</v>
+        <v>307.3647025491293</v>
       </c>
       <c r="E37" t="n">
-        <v>466.8849513436966</v>
+        <v>155.3556883104481</v>
       </c>
       <c r="F37" t="n">
-        <v>466.8849513436966</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="G37" t="n">
-        <v>298.317103438727</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H37" t="n">
-        <v>142.0731755923873</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I37" t="n">
         <v>59.97844262748436</v>
@@ -7128,19 +7128,19 @@
         <v>880.6921489575113</v>
       </c>
       <c r="U37" t="n">
-        <v>880.6921489575113</v>
+        <v>593.5211040317301</v>
       </c>
       <c r="V37" t="n">
-        <v>619.9568445159339</v>
+        <v>593.5211040317301</v>
       </c>
       <c r="W37" t="n">
-        <v>619.9568445159339</v>
+        <v>307.3647025491293</v>
       </c>
       <c r="X37" t="n">
-        <v>619.9568445159339</v>
+        <v>307.3647025491293</v>
       </c>
       <c r="Y37" t="n">
-        <v>619.9568445159339</v>
+        <v>307.3647025491293</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1447.372837286338</v>
       </c>
       <c r="D38" t="n">
-        <v>1426.807511075581</v>
+        <v>1284.234837450651</v>
       </c>
       <c r="E38" t="n">
-        <v>1032.021791181688</v>
+        <v>889.4491175567575</v>
       </c>
       <c r="F38" t="n">
-        <v>617.8706004918583</v>
+        <v>475.2979268669278</v>
       </c>
       <c r="G38" t="n">
-        <v>202.5511162524148</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H38" t="n">
-        <v>202.5511162524148</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I38" t="n">
         <v>59.97844262748436</v>
       </c>
       <c r="J38" t="n">
-        <v>197.2356248381976</v>
+        <v>197.2356248381973</v>
       </c>
       <c r="K38" t="n">
-        <v>535.1817785951596</v>
+        <v>535.1817785951594</v>
       </c>
       <c r="L38" t="n">
         <v>1004.403872472887</v>
@@ -7253,25 +7253,25 @@
         <v>59.97844262748436</v>
       </c>
       <c r="J39" t="n">
-        <v>59.97844262748436</v>
+        <v>159.1001868499821</v>
       </c>
       <c r="K39" t="n">
-        <v>59.97844262748436</v>
+        <v>455.0216546012171</v>
       </c>
       <c r="L39" t="n">
-        <v>515.1248513560853</v>
+        <v>910.1680633298179</v>
       </c>
       <c r="M39" t="n">
-        <v>1104.395757371588</v>
+        <v>1441.752949043595</v>
       </c>
       <c r="N39" t="n">
-        <v>1653.386929385486</v>
+        <v>1443.101369738137</v>
       </c>
       <c r="O39" t="n">
-        <v>2143.467692195839</v>
+        <v>1933.18213254849</v>
       </c>
       <c r="P39" t="n">
-        <v>2524.121592447384</v>
+        <v>2313.836032800035</v>
       </c>
       <c r="Q39" t="n">
         <v>2524.121592447384</v>
@@ -7365,16 +7365,16 @@
         <v>880.6921489575113</v>
       </c>
       <c r="U40" t="n">
-        <v>880.6921489575113</v>
+        <v>593.5211040317301</v>
       </c>
       <c r="V40" t="n">
-        <v>619.9568445159339</v>
+        <v>332.7857995901527</v>
       </c>
       <c r="W40" t="n">
-        <v>333.800443033333</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="X40" t="n">
-        <v>102.5479789287088</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="Y40" t="n">
         <v>59.97844262748436</v>
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2394.669353385061</v>
+        <v>1268.511671029738</v>
       </c>
       <c r="C41" t="n">
-        <v>2012.735594717868</v>
+        <v>886.5779123625457</v>
       </c>
       <c r="D41" t="n">
-        <v>1751.594501233175</v>
+        <v>868.9153532112072</v>
       </c>
       <c r="E41" t="n">
-        <v>1356.808781339282</v>
+        <v>474.129633317314</v>
       </c>
       <c r="F41" t="n">
-        <v>942.657590649452</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="G41" t="n">
-        <v>527.3381064100085</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H41" t="n">
-        <v>202.5511162524148</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I41" t="n">
         <v>59.97844262748436</v>
       </c>
       <c r="J41" t="n">
-        <v>197.2356248381978</v>
+        <v>197.2356248381973</v>
       </c>
       <c r="K41" t="n">
-        <v>535.1817785951598</v>
+        <v>535.1817785951594</v>
       </c>
       <c r="L41" t="n">
         <v>1004.403872472887</v>
       </c>
       <c r="M41" t="n">
-        <v>1532.65351969111</v>
+        <v>1532.653519691109</v>
       </c>
       <c r="N41" t="n">
-        <v>2048.179970075088</v>
+        <v>2048.179970075087</v>
       </c>
       <c r="O41" t="n">
         <v>2482.73398924193</v>
@@ -7435,28 +7435,28 @@
         <v>2998.922131374218</v>
       </c>
       <c r="R41" t="n">
-        <v>2957.563337872495</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="S41" t="n">
-        <v>2788.211208809223</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="T41" t="n">
-        <v>2788.211208809223</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="U41" t="n">
-        <v>2788.211208809223</v>
+        <v>2744.099555272722</v>
       </c>
       <c r="V41" t="n">
-        <v>2788.211208809223</v>
+        <v>2407.120281168663</v>
       </c>
       <c r="W41" t="n">
-        <v>2788.211208809223</v>
+        <v>2044.585351026264</v>
       </c>
       <c r="X41" t="n">
-        <v>2788.211208809223</v>
+        <v>1662.555210547757</v>
       </c>
       <c r="Y41" t="n">
-        <v>2394.669353385061</v>
+        <v>1662.555210547757</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>59.97844262748436</v>
       </c>
       <c r="J42" t="n">
-        <v>59.97844262748436</v>
+        <v>159.1001868499821</v>
       </c>
       <c r="K42" t="n">
-        <v>59.97844262748436</v>
+        <v>455.0216546012171</v>
       </c>
       <c r="L42" t="n">
-        <v>515.1248513560853</v>
+        <v>910.1680633298179</v>
       </c>
       <c r="M42" t="n">
-        <v>1104.395757371588</v>
+        <v>1499.43896934532</v>
       </c>
       <c r="N42" t="n">
-        <v>1653.386929385486</v>
+        <v>1500.787390039862</v>
       </c>
       <c r="O42" t="n">
-        <v>2143.467692195839</v>
+        <v>1990.868152850215</v>
       </c>
       <c r="P42" t="n">
-        <v>2524.121592447384</v>
+        <v>2371.52205310176</v>
       </c>
       <c r="Q42" t="n">
         <v>2524.121592447384</v>
@@ -7602,16 +7602,16 @@
         <v>880.6921489575113</v>
       </c>
       <c r="U43" t="n">
-        <v>593.5211040317301</v>
+        <v>606.8701485516626</v>
       </c>
       <c r="V43" t="n">
-        <v>593.5211040317301</v>
+        <v>346.1348441100852</v>
       </c>
       <c r="W43" t="n">
-        <v>307.3647025491293</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="X43" t="n">
-        <v>282.0136014352073</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="Y43" t="n">
         <v>59.97844262748436</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1426.807511075581</v>
+        <v>1129.792391707072</v>
       </c>
       <c r="C44" t="n">
-        <v>1426.807511075581</v>
+        <v>1129.792391707072</v>
       </c>
       <c r="D44" t="n">
-        <v>1426.807511075581</v>
+        <v>1129.792391707072</v>
       </c>
       <c r="E44" t="n">
-        <v>1032.021791181688</v>
+        <v>735.0066718131791</v>
       </c>
       <c r="F44" t="n">
-        <v>617.8706004918583</v>
+        <v>735.0066718131791</v>
       </c>
       <c r="G44" t="n">
-        <v>202.5511162524148</v>
+        <v>384.7654327850782</v>
       </c>
       <c r="H44" t="n">
-        <v>202.5511162524148</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I44" t="n">
         <v>59.97844262748436</v>
       </c>
       <c r="J44" t="n">
-        <v>197.2356248381978</v>
+        <v>197.2356248381973</v>
       </c>
       <c r="K44" t="n">
-        <v>535.1817785951598</v>
+        <v>535.1817785951594</v>
       </c>
       <c r="L44" t="n">
         <v>1004.403872472887</v>
       </c>
       <c r="M44" t="n">
-        <v>1532.65351969111</v>
+        <v>1532.653519691109</v>
       </c>
       <c r="N44" t="n">
-        <v>2048.179970075088</v>
+        <v>2048.179970075087</v>
       </c>
       <c r="O44" t="n">
-        <v>2482.73398924193</v>
+        <v>2482.733989241929</v>
       </c>
       <c r="P44" t="n">
-        <v>2821.458330977218</v>
+        <v>2821.458330977217</v>
       </c>
       <c r="Q44" t="n">
         <v>2998.922131374218</v>
       </c>
       <c r="R44" t="n">
-        <v>2957.563337872495</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="S44" t="n">
-        <v>2788.211208809223</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="T44" t="n">
-        <v>2567.286421386362</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="U44" t="n">
-        <v>2567.286421386362</v>
+        <v>2998.922131374218</v>
       </c>
       <c r="V44" t="n">
-        <v>2230.307147282304</v>
+        <v>2661.942857270159</v>
       </c>
       <c r="W44" t="n">
-        <v>2230.307147282304</v>
+        <v>2299.40792712776</v>
       </c>
       <c r="X44" t="n">
-        <v>2214.392906017762</v>
+        <v>1917.377786649253</v>
       </c>
       <c r="Y44" t="n">
-        <v>1820.8510505936</v>
+        <v>1523.835931225091</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.3658250849027</v>
+        <v>920.3658250849024</v>
       </c>
       <c r="C45" t="n">
-        <v>758.6621523258574</v>
+        <v>758.6621523258572</v>
       </c>
       <c r="D45" t="n">
-        <v>619.8235153160695</v>
+        <v>619.8235153160692</v>
       </c>
       <c r="E45" t="n">
-        <v>472.7955053729406</v>
+        <v>472.7955053729405</v>
       </c>
       <c r="F45" t="n">
         <v>338.1017073228149</v>
@@ -7727,37 +7727,37 @@
         <v>59.97844262748436</v>
       </c>
       <c r="J45" t="n">
-        <v>159.1001868499821</v>
+        <v>159.100186849982</v>
       </c>
       <c r="K45" t="n">
-        <v>455.0216546012171</v>
+        <v>455.021654601217</v>
       </c>
       <c r="L45" t="n">
-        <v>910.1680633298179</v>
+        <v>455.021654601217</v>
       </c>
       <c r="M45" t="n">
-        <v>1035.124872910791</v>
+        <v>1044.292560616719</v>
       </c>
       <c r="N45" t="n">
-        <v>1653.386929385486</v>
+        <v>1662.554617091414</v>
       </c>
       <c r="O45" t="n">
-        <v>2143.467692195839</v>
+        <v>2152.635379901767</v>
       </c>
       <c r="P45" t="n">
-        <v>2524.121592447384</v>
+        <v>2313.836032800034</v>
       </c>
       <c r="Q45" t="n">
-        <v>2524.121592447384</v>
+        <v>2524.121592447383</v>
       </c>
       <c r="R45" t="n">
         <v>2490.398379145415</v>
       </c>
       <c r="S45" t="n">
-        <v>2345.395485156112</v>
+        <v>2345.395485156111</v>
       </c>
       <c r="T45" t="n">
-        <v>2158.402251207604</v>
+        <v>2158.402251207603</v>
       </c>
       <c r="U45" t="n">
         <v>1939.935073657146</v>
@@ -7769,10 +7769,10 @@
         <v>1470.22358233879</v>
       </c>
       <c r="X45" t="n">
-        <v>1272.306594216585</v>
+        <v>1272.306594216584</v>
       </c>
       <c r="Y45" t="n">
-        <v>1079.785267866164</v>
+        <v>1079.785267866163</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2178.208425044191</v>
+        <v>441.8625922020744</v>
       </c>
       <c r="C46" t="n">
-        <v>2178.208425044191</v>
+        <v>272.2466226637547</v>
       </c>
       <c r="D46" t="n">
-        <v>2178.208425044191</v>
+        <v>272.2466226637547</v>
       </c>
       <c r="E46" t="n">
-        <v>2178.208425044191</v>
+        <v>120.2376084250735</v>
       </c>
       <c r="F46" t="n">
-        <v>2178.208425044191</v>
+        <v>120.2376084250735</v>
       </c>
       <c r="G46" t="n">
-        <v>2178.208425044191</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="H46" t="n">
-        <v>2178.208425044191</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="I46" t="n">
-        <v>2178.208425044191</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="J46" t="n">
-        <v>2178.208425044191</v>
+        <v>59.97844262748436</v>
       </c>
       <c r="K46" t="n">
-        <v>2251.883478212731</v>
+        <v>133.6534957960239</v>
       </c>
       <c r="L46" t="n">
-        <v>2403.767469439469</v>
+        <v>285.5374870227621</v>
       </c>
       <c r="M46" t="n">
-        <v>2575.825289534539</v>
+        <v>457.5953071178318</v>
       </c>
       <c r="N46" t="n">
-        <v>2747.026416705145</v>
+        <v>628.7964342884371</v>
       </c>
       <c r="O46" t="n">
-        <v>2894.239814031095</v>
+        <v>776.009831614388</v>
       </c>
       <c r="P46" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="Q46" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="R46" t="n">
-        <v>2998.922131374218</v>
+        <v>880.6921489575112</v>
       </c>
       <c r="S46" t="n">
-        <v>2998.922131374218</v>
+        <v>673.1150563066986</v>
       </c>
       <c r="T46" t="n">
-        <v>2998.922131374218</v>
+        <v>673.1150563066986</v>
       </c>
       <c r="U46" t="n">
-        <v>2711.751086448437</v>
+        <v>673.1150563066986</v>
       </c>
       <c r="V46" t="n">
-        <v>2711.751086448437</v>
+        <v>673.1150563066986</v>
       </c>
       <c r="W46" t="n">
-        <v>2631.496047956538</v>
+        <v>673.1150563066986</v>
       </c>
       <c r="X46" t="n">
-        <v>2400.243583851914</v>
+        <v>441.8625922020744</v>
       </c>
       <c r="Y46" t="n">
-        <v>2178.208425044191</v>
+        <v>441.8625922020744</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>78.99621350193966</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
@@ -8069,7 +8069,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836203</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8078,7 +8078,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.3502911080176</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8294,10 +8294,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>281.8684094834668</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8312,7 +8312,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>271.8947139899012</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
         <v>87.64858173562192</v>
@@ -8534,7 +8534,7 @@
         <v>83.74785933339987</v>
       </c>
       <c r="K9" t="n">
-        <v>281.8684094834668</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8543,7 +8543,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>375.7567956927521</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8552,7 +8552,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8710,7 +8710,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.009487857876</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8768,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1681629939445</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K12" t="n">
-        <v>78.99621350193966</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8786,10 +8786,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>352.0652005990326</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9008,7 +9008,7 @@
         <v>83.74785933339987</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>96.4165171624843</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9023,10 +9023,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>352.0652005990326</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9242,10 +9242,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>101.1681629939445</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K18" t="n">
-        <v>78.99621350193966</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9260,7 +9260,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>166.6133082780506</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9479,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>101.1681629939445</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>78.99621350193966</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9491,7 +9491,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836198</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9716,7 +9716,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>63.79537198041259</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9725,10 +9725,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>10.19344548560356</v>
       </c>
       <c r="N24" t="n">
-        <v>254.2639227960825</v>
+        <v>536.9544300139167</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9737,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>60.69081784716076</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9956,10 +9956,10 @@
         <v>63.79537198041259</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>44.89423463025624</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>199.7122023206125</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9971,10 +9971,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>29.50271008894389</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>76.30854313959836</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10190,28 +10190,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>63.79537198041259</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>44.89423463025624</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>412.1218585300555</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>355.7328918564385</v>
       </c>
       <c r="Q30" t="n">
-        <v>60.69081784716076</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10439,13 +10439,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>154.1409488339634</v>
       </c>
       <c r="O33" t="n">
-        <v>427.5157663900667</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>29.50271008894389</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
         <v>60.69081784716076</v>
@@ -10594,7 +10594,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>584.3675935406829</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N35" t="n">
         <v>568.5510017355793</v>
@@ -10664,19 +10664,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>63.79537198041258</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>44.89423463025624</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>547.1478754995203</v>
       </c>
       <c r="N36" t="n">
-        <v>553.1744962821782</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10685,7 +10685,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>60.69081784716075</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10901,19 +10901,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>63.79537198041258</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>44.89423463025624</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>547.1478754995203</v>
       </c>
       <c r="N39" t="n">
-        <v>553.1744962821782</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10922,7 +10922,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.69081784716075</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236964</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11138,10 +11138,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>63.79537198041258</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>44.89423463025624</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11150,7 +11150,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>553.1744962821782</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11159,7 +11159,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>60.69081784716075</v>
+        <v>214.8317666811241</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236964</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11381,10 +11381,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>22.34860169389005</v>
       </c>
       <c r="M45" t="n">
-        <v>136.4124450623437</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -11393,10 +11393,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>192.3316524104257</v>
       </c>
       <c r="Q45" t="n">
-        <v>60.69081784716075</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>40.37957947649414</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>46.64710230501666</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>32.91717399855085</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>120.5065807525132</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22998,19 +22998,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>32.91717399855085</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>120.5065807525132</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23235,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>364.7435140675288</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>144.3939105507451</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>252.305926837283</v>
@@ -23326,7 +23326,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23436,10 +23436,10 @@
         <v>156.2556384040709</v>
       </c>
       <c r="I13" t="n">
-        <v>120.5065807525132</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3089918374816</v>
+        <v>158.4557702430231</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>325.5814052293737</v>
+        <v>15.22235715753305</v>
       </c>
       <c r="I14" t="n">
         <v>156.363858050434</v>
@@ -23548,13 +23548,13 @@
         <v>176.6529755334452</v>
       </c>
       <c r="T14" t="n">
-        <v>81.28705803356283</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
@@ -23563,7 +23563,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>68.24762868879806</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
@@ -23706,13 +23706,13 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T16" t="n">
-        <v>230.1151168515673</v>
+        <v>104.2618952571089</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>176.6529755334452</v>
       </c>
       <c r="T17" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>67.75537300868024</v>
       </c>
       <c r="W17" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>364.8389320607297</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
         <v>389.6064368699203</v>
@@ -23943,16 +23943,16 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>158.4557702430232</v>
       </c>
       <c r="W19" t="n">
-        <v>130.4429356974289</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
         <v>369.0957251250487</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>262.3139613667685</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S20" t="n">
-        <v>100.2427567221736</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T20" t="n">
         <v>220.4433659829895</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24150,7 +24150,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J22" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R22" t="n">
         <v>140.32293915197</v>
@@ -24183,19 +24183,19 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V22" t="n">
-        <v>158.4557702430232</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>64.77357369160362</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>347.1957813035937</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.166289397049</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.94520556670598</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>167.65860777264</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>218.7155395486319</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.2743503404815</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>230.9607118265737</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -24414,22 +24414,22 @@
         <v>132.3620546020535</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>205.5013217243044</v>
       </c>
       <c r="T25" t="n">
         <v>229.3586235765045</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2993344765234</v>
+        <v>13.21555407473318</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>123.1154910021434</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>357.0428815816366</v>
       </c>
       <c r="G26" t="n">
-        <v>411.166289397049</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>321.5391202560178</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>141.1469468886812</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>40.94520556670598</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>96.21062150795433</v>
+        <v>167.65860777264</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7155395486319</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2743503404815</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>38.99083152013995</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
@@ -24648,7 +24648,7 @@
         <v>8.979749550313013</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>132.3620546020535</v>
       </c>
       <c r="S28" t="n">
         <v>205.5013217243044</v>
@@ -24657,10 +24657,10 @@
         <v>229.3586235765045</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>13.21555407473318</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>156.0703702434058</v>
+        <v>175.6608234337392</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>321.5391202560178</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>141.1469468886812</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.94520556670598</v>
       </c>
       <c r="S29" t="n">
         <v>167.65860777264</v>
@@ -24736,7 +24736,7 @@
         <v>218.7155395486319</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.2743503404815</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -24846,7 +24846,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>23.81631152327277</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>13.21555407473315</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>350.428475618489</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>321.5391202560178</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.94520556670598</v>
       </c>
       <c r="S32" t="n">
-        <v>167.65860777264</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7155395486319</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>218.1187010452542</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.8821694259198</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>154.6814885678763</v>
@@ -25125,7 +25125,7 @@
         <v>132.3620546020535</v>
       </c>
       <c r="S34" t="n">
-        <v>205.5013217243044</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>229.3586235765045</v>
@@ -25134,16 +25134,16 @@
         <v>284.2993344765234</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>120.5018959456548</v>
       </c>
       <c r="W34" t="n">
-        <v>101.2628298818079</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>248.5343108544244</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.166289397049</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>321.5391202560178</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>167.65860777264</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7155395486319</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.2743503404815</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>11.31575633462052</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>56.53237519834654</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.8821694259198</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>154.6814885678763</v>
       </c>
       <c r="I37" t="n">
-        <v>51.01043986847698</v>
+        <v>132.2842255037309</v>
       </c>
       <c r="J37" t="n">
         <v>34.82607860242547</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>8.979749550313006</v>
+        <v>8.979749550313013</v>
       </c>
       <c r="R37" t="n">
         <v>132.3620546020535</v>
@@ -25368,13 +25368,13 @@
         <v>229.3586235765045</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2993344765234</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>348.7360521763998</v>
+        <v>207.5891052877186</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>321.5391202560178</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>141.1469468886812</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.94520556670597</v>
+        <v>40.94520556670598</v>
       </c>
       <c r="S38" t="n">
         <v>167.65860777264</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>8.979749550313006</v>
+        <v>8.979749550313013</v>
       </c>
       <c r="R40" t="n">
         <v>132.3620546020535</v>
@@ -25605,19 +25605,19 @@
         <v>229.3586235765045</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2993344765234</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>13.21555407473318</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>177.6709662814335</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>110.5660425752025</v>
+        <v>351.6097915652235</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.166289397049</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>321.5391202560178</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>141.1469468886812</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.94520556670598</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>167.65860777264</v>
       </c>
       <c r="T41" t="n">
         <v>218.7155395486319</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2743503404815</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.979749550313006</v>
+        <v>8.979749550313013</v>
       </c>
       <c r="R43" t="n">
         <v>132.3620546020535</v>
@@ -25842,19 +25842,19 @@
         <v>229.3586235765045</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>13.21555407473318</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>203.8423493607952</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>64.42746275922917</v>
       </c>
       <c r="H44" t="n">
-        <v>321.5391202560178</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>141.1469468886812</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.94520556670599</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>167.65860777264</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7155395486319</v>
       </c>
       <c r="U44" t="n">
         <v>252.2743503404815</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>362.4547402218259</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.8821694259198</v>
+        <v>107.2255952863065</v>
       </c>
       <c r="H46" t="n">
         <v>154.6814885678763</v>
@@ -26046,7 +26046,7 @@
         <v>132.2842255037309</v>
       </c>
       <c r="J46" t="n">
-        <v>34.82607860242547</v>
+        <v>34.82607860242548</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.979749550313006</v>
+        <v>8.979749550313016</v>
       </c>
       <c r="R46" t="n">
         <v>132.3620546020535</v>
       </c>
       <c r="S46" t="n">
-        <v>205.5013217243044</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>229.3586235765045</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.2993344765234</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>203.8423493607952</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>662567.407812857</v>
+        <v>977812.1358518734</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>662567.4078128567</v>
+        <v>977812.1358518734</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>662567.4078128567</v>
+        <v>977812.1358518734</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>662567.407812857</v>
+        <v>662567.4078128566</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>662567.407812857</v>
+        <v>662567.4078128568</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>713759.0268230981</v>
+        <v>713759.0268230983</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>713759.0268230983</v>
+        <v>713759.0268230981</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>713759.0268230982</v>
+        <v>713759.0268230981</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>713759.0268230981</v>
+        <v>713759.0268230982</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>713759.026823098</v>
+        <v>713759.0268230981</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>277706.0662539175</v>
+        <v>422193.2332718002</v>
       </c>
       <c r="C2" t="n">
-        <v>277706.0662539175</v>
+        <v>422193.2332718002</v>
       </c>
       <c r="D2" t="n">
-        <v>277706.0662539175</v>
+        <v>422193.2332718001</v>
       </c>
       <c r="E2" t="n">
-        <v>277706.0662539176</v>
+        <v>277706.0662539174</v>
       </c>
       <c r="F2" t="n">
         <v>277706.0662539176</v>
@@ -26331,7 +26331,7 @@
         <v>277706.0662539175</v>
       </c>
       <c r="H2" t="n">
-        <v>277706.0662539176</v>
+        <v>277706.0662539177</v>
       </c>
       <c r="I2" t="n">
         <v>302028.4644444262</v>
@@ -26343,19 +26343,19 @@
         <v>302028.4644444263</v>
       </c>
       <c r="L2" t="n">
-        <v>302028.4644444262</v>
+        <v>302028.4644444264</v>
       </c>
       <c r="M2" t="n">
         <v>302028.4644444264</v>
       </c>
       <c r="N2" t="n">
-        <v>302028.4644444264</v>
+        <v>302028.4644444262</v>
       </c>
       <c r="O2" t="n">
-        <v>302028.4644444265</v>
+        <v>302028.4644444261</v>
       </c>
       <c r="P2" t="n">
-        <v>302028.4644444264</v>
+        <v>302028.4644444263</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>104237.3185096256</v>
       </c>
       <c r="J3" t="n">
-        <v>166320.279792022</v>
+        <v>166320.2797920221</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57148.38614792706</v>
+        <v>207091.1457405241</v>
       </c>
       <c r="C4" t="n">
-        <v>57148.38614792704</v>
+        <v>207091.1457405241</v>
       </c>
       <c r="D4" t="n">
-        <v>57148.38614792706</v>
+        <v>207091.1457405241</v>
       </c>
       <c r="E4" t="n">
         <v>57148.38614792704</v>
@@ -26432,7 +26432,7 @@
         <v>57148.38614792704</v>
       </c>
       <c r="G4" t="n">
-        <v>57148.38614792704</v>
+        <v>57148.38614792705</v>
       </c>
       <c r="H4" t="n">
         <v>57148.38614792704</v>
@@ -26441,25 +26441,25 @@
         <v>55330.43275666548</v>
       </c>
       <c r="J4" t="n">
-        <v>55330.43275666548</v>
+        <v>55330.43275666549</v>
       </c>
       <c r="K4" t="n">
-        <v>55330.43275666549</v>
+        <v>55330.4327566655</v>
       </c>
       <c r="L4" t="n">
         <v>55330.43275666548</v>
       </c>
       <c r="M4" t="n">
-        <v>55330.43275666549</v>
+        <v>55330.43275666548</v>
       </c>
       <c r="N4" t="n">
         <v>55330.43275666548</v>
       </c>
       <c r="O4" t="n">
-        <v>55330.43275666549</v>
+        <v>55330.43275666548</v>
       </c>
       <c r="P4" t="n">
-        <v>55330.43275666549</v>
+        <v>55330.43275666548</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>49795.23467992957</v>
       </c>
       <c r="P5" t="n">
-        <v>49795.23467992957</v>
+        <v>49795.23467992956</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-158372.2782946195</v>
+        <v>-163827.870869334</v>
       </c>
       <c r="C6" t="n">
-        <v>146209.8776436858</v>
+        <v>140754.2850689714</v>
       </c>
       <c r="D6" t="n">
-        <v>146209.8776436858</v>
+        <v>140754.2850689713</v>
       </c>
       <c r="E6" t="n">
-        <v>179837.4776436859</v>
+        <v>173269.8791428728</v>
       </c>
       <c r="F6" t="n">
-        <v>179837.4776436859</v>
+        <v>173269.879142873</v>
       </c>
       <c r="G6" t="n">
-        <v>179837.4776436858</v>
+        <v>173269.8791428729</v>
       </c>
       <c r="H6" t="n">
-        <v>179837.4776436859</v>
+        <v>173269.8791428731</v>
       </c>
       <c r="I6" t="n">
-        <v>92665.47849820551</v>
+        <v>87203.44355150677</v>
       </c>
       <c r="J6" t="n">
-        <v>30582.5172158092</v>
+        <v>25120.48226911031</v>
       </c>
       <c r="K6" t="n">
-        <v>196902.7970078313</v>
+        <v>191440.7620611324</v>
       </c>
       <c r="L6" t="n">
-        <v>196902.7970078312</v>
+        <v>191440.7620611325</v>
       </c>
       <c r="M6" t="n">
-        <v>196902.7970078314</v>
+        <v>191440.7620611325</v>
       </c>
       <c r="N6" t="n">
-        <v>196902.7970078313</v>
+        <v>191440.7620611324</v>
       </c>
       <c r="O6" t="n">
-        <v>196902.7970078315</v>
+        <v>191440.7620611323</v>
       </c>
       <c r="P6" t="n">
-        <v>196902.7970078314</v>
+        <v>191440.7620611324</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="C3" t="n">
         <v>95.01032947988872</v>
@@ -26746,7 +26746,7 @@
         <v>95.01032947988872</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="F3" t="n">
         <v>95.01032947988871</v>
@@ -26755,7 +26755,7 @@
         <v>95.01032947988871</v>
       </c>
       <c r="H3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="I3" t="n">
         <v>193.1934992220851</v>
@@ -26779,7 +26779,7 @@
         <v>193.1934992220851</v>
       </c>
       <c r="P3" t="n">
-        <v>193.1934992220851</v>
+        <v>193.193499222085</v>
       </c>
     </row>
     <row r="4">
@@ -26831,7 +26831,7 @@
         <v>749.7305328435546</v>
       </c>
       <c r="P4" t="n">
-        <v>749.7305328435546</v>
+        <v>749.7305328435544</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>98.18316974219634</v>
+        <v>98.18316974219626</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>114.0565644283719</v>
       </c>
       <c r="J4" t="n">
-        <v>635.6739684151826</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>139.4318581599003</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.590751463177757</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>196.7082628482095</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>124.8686319870985</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>317.6812951298137</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>88.57898187298841</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H2" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I2" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J2" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K2" t="n">
-        <v>48.58560883850209</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L2" t="n">
-        <v>60.27474399757805</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M2" t="n">
-        <v>67.06726639712767</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N2" t="n">
-        <v>68.15248488410148</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O2" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P2" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q2" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R2" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S2" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T2" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H3" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I3" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J3" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K3" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L3" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M3" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N3" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O3" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P3" t="n">
-        <v>39.02414834806977</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q3" t="n">
-        <v>26.08660970927058</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R3" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S3" t="n">
-        <v>3.795931559880457</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H4" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I4" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J4" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K4" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L4" t="n">
-        <v>25.47211357891967</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M4" t="n">
-        <v>26.85677231511017</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N4" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O4" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P4" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R4" t="n">
-        <v>7.703624419795564</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S4" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>0.3819510732859845</v>
       </c>
       <c r="H11" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I11" t="n">
         <v>14.72516875285793</v>
@@ -31764,37 +31764,37 @@
         <v>32.41761990630636</v>
       </c>
       <c r="K11" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N11" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P11" t="n">
         <v>54.92504177736622</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T11" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>1.973705146365236</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J12" t="n">
         <v>19.30771233326682</v>
@@ -31846,10 +31846,10 @@
         <v>32.99995566472701</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N12" t="n">
         <v>53.1511087530936</v>
@@ -31870,7 +31870,7 @@
         <v>3.795931559880457</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U12" t="n">
         <v>0.01344485794526728</v>
@@ -31925,10 +31925,10 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M13" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N13" t="n">
         <v>26.21817829729455</v>
@@ -31940,19 +31940,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H20" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I20" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J20" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K20" t="n">
-        <v>48.58560883850209</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L20" t="n">
-        <v>60.27474399757805</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M20" t="n">
-        <v>67.06726639712767</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N20" t="n">
-        <v>68.15248488410148</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P20" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R20" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S20" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T20" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H21" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I21" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J21" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K21" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L21" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M21" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N21" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O21" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P21" t="n">
-        <v>39.02414834806977</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.08660970927058</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R21" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S21" t="n">
-        <v>3.795931559880457</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H22" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I22" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J22" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K22" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L22" t="n">
-        <v>25.47211357891967</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M22" t="n">
-        <v>26.85677231511017</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N22" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O22" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P22" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R22" t="n">
-        <v>7.703624419795564</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S22" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33648,19 +33648,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7766572833048641</v>
+        <v>0.7766572833048639</v>
       </c>
       <c r="H35" t="n">
-        <v>7.953941402645941</v>
+        <v>7.95394140264594</v>
       </c>
       <c r="I35" t="n">
         <v>29.9420799146108</v>
       </c>
       <c r="J35" t="n">
-        <v>65.91781609889627</v>
+        <v>65.91781609889625</v>
       </c>
       <c r="K35" t="n">
-        <v>98.79371890119118</v>
+        <v>98.79371890119117</v>
       </c>
       <c r="L35" t="n">
         <v>122.5623442351324</v>
@@ -33669,28 +33669,28 @@
         <v>136.3742231971053</v>
       </c>
       <c r="N35" t="n">
-        <v>138.5809007032953</v>
+        <v>138.5809007032952</v>
       </c>
       <c r="O35" t="n">
         <v>130.8580148424325</v>
       </c>
       <c r="P35" t="n">
-        <v>111.6842881608437</v>
+        <v>111.6842881608436</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.8702492024882</v>
+        <v>83.87024920248818</v>
       </c>
       <c r="R35" t="n">
-        <v>48.78669807239921</v>
+        <v>48.7866980723992</v>
       </c>
       <c r="S35" t="n">
-        <v>17.69807784330961</v>
+        <v>17.6980778433096</v>
       </c>
       <c r="T35" t="n">
         <v>3.399817257667044</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06213258266438911</v>
+        <v>0.0621325826643891</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.415548281345617</v>
+        <v>0.4155482813456169</v>
       </c>
       <c r="H36" t="n">
         <v>4.013321559311617</v>
@@ -33736,34 +33736,34 @@
         <v>14.30725442352234</v>
       </c>
       <c r="J36" t="n">
-        <v>39.26019968625411</v>
+        <v>39.2601996862541</v>
       </c>
       <c r="K36" t="n">
         <v>67.10193453641044</v>
       </c>
       <c r="L36" t="n">
-        <v>90.22683187725777</v>
+        <v>90.22683187725775</v>
       </c>
       <c r="M36" t="n">
-        <v>105.2904570760364</v>
+        <v>105.2904570760363</v>
       </c>
       <c r="N36" t="n">
         <v>108.0771821733059</v>
       </c>
       <c r="O36" t="n">
-        <v>98.86950709717405</v>
+        <v>98.86950709717404</v>
       </c>
       <c r="P36" t="n">
         <v>79.35149593519944</v>
       </c>
       <c r="Q36" t="n">
-        <v>53.04437359773174</v>
+        <v>53.04437359773173</v>
       </c>
       <c r="R36" t="n">
         <v>25.80044504705507</v>
       </c>
       <c r="S36" t="n">
-        <v>7.718627067976696</v>
+        <v>7.718627067976695</v>
       </c>
       <c r="T36" t="n">
         <v>1.67495118665185</v>
@@ -33821,28 +33821,28 @@
         <v>40.47562164029912</v>
       </c>
       <c r="L37" t="n">
-        <v>51.79486043078655</v>
+        <v>51.79486043078654</v>
       </c>
       <c r="M37" t="n">
-        <v>54.61041814895758</v>
+        <v>54.61041814895757</v>
       </c>
       <c r="N37" t="n">
-        <v>53.31190446566164</v>
+        <v>53.31190446566163</v>
       </c>
       <c r="O37" t="n">
-        <v>49.24217255581934</v>
+        <v>49.24217255581933</v>
       </c>
       <c r="P37" t="n">
-        <v>42.13518546968227</v>
+        <v>42.13518546968226</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.17221838253485</v>
+        <v>29.17221838253484</v>
       </c>
       <c r="R37" t="n">
-        <v>15.66450896971201</v>
+        <v>15.664508969712</v>
       </c>
       <c r="S37" t="n">
-        <v>6.071343246044868</v>
+        <v>6.071343246044867</v>
       </c>
       <c r="T37" t="n">
         <v>1.488540075973442</v>
@@ -33885,19 +33885,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7766572833048641</v>
+        <v>0.7766572833048639</v>
       </c>
       <c r="H38" t="n">
-        <v>7.953941402645941</v>
+        <v>7.95394140264594</v>
       </c>
       <c r="I38" t="n">
         <v>29.9420799146108</v>
       </c>
       <c r="J38" t="n">
-        <v>65.91781609889627</v>
+        <v>65.91781609889625</v>
       </c>
       <c r="K38" t="n">
-        <v>98.79371890119118</v>
+        <v>98.79371890119117</v>
       </c>
       <c r="L38" t="n">
         <v>122.5623442351324</v>
@@ -33906,28 +33906,28 @@
         <v>136.3742231971053</v>
       </c>
       <c r="N38" t="n">
-        <v>138.5809007032953</v>
+        <v>138.5809007032952</v>
       </c>
       <c r="O38" t="n">
         <v>130.8580148424325</v>
       </c>
       <c r="P38" t="n">
-        <v>111.6842881608437</v>
+        <v>111.6842881608436</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.8702492024882</v>
+        <v>83.87024920248818</v>
       </c>
       <c r="R38" t="n">
-        <v>48.78669807239921</v>
+        <v>48.7866980723992</v>
       </c>
       <c r="S38" t="n">
-        <v>17.69807784330961</v>
+        <v>17.6980778433096</v>
       </c>
       <c r="T38" t="n">
         <v>3.399817257667044</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06213258266438911</v>
+        <v>0.0621325826643891</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.415548281345617</v>
+        <v>0.4155482813456169</v>
       </c>
       <c r="H39" t="n">
         <v>4.013321559311617</v>
@@ -33973,34 +33973,34 @@
         <v>14.30725442352234</v>
       </c>
       <c r="J39" t="n">
-        <v>39.26019968625411</v>
+        <v>39.2601996862541</v>
       </c>
       <c r="K39" t="n">
         <v>67.10193453641044</v>
       </c>
       <c r="L39" t="n">
-        <v>90.22683187725777</v>
+        <v>90.22683187725775</v>
       </c>
       <c r="M39" t="n">
-        <v>105.2904570760364</v>
+        <v>105.2904570760363</v>
       </c>
       <c r="N39" t="n">
         <v>108.0771821733059</v>
       </c>
       <c r="O39" t="n">
-        <v>98.86950709717405</v>
+        <v>98.86950709717404</v>
       </c>
       <c r="P39" t="n">
         <v>79.35149593519944</v>
       </c>
       <c r="Q39" t="n">
-        <v>53.04437359773174</v>
+        <v>53.04437359773173</v>
       </c>
       <c r="R39" t="n">
         <v>25.80044504705507</v>
       </c>
       <c r="S39" t="n">
-        <v>7.718627067976696</v>
+        <v>7.718627067976695</v>
       </c>
       <c r="T39" t="n">
         <v>1.67495118665185</v>
@@ -34058,28 +34058,28 @@
         <v>40.47562164029912</v>
       </c>
       <c r="L40" t="n">
-        <v>51.79486043078655</v>
+        <v>51.79486043078654</v>
       </c>
       <c r="M40" t="n">
-        <v>54.61041814895758</v>
+        <v>54.61041814895757</v>
       </c>
       <c r="N40" t="n">
-        <v>53.31190446566164</v>
+        <v>53.31190446566163</v>
       </c>
       <c r="O40" t="n">
-        <v>49.24217255581934</v>
+        <v>49.24217255581933</v>
       </c>
       <c r="P40" t="n">
-        <v>42.13518546968227</v>
+        <v>42.13518546968226</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.17221838253485</v>
+        <v>29.17221838253484</v>
       </c>
       <c r="R40" t="n">
-        <v>15.66450896971201</v>
+        <v>15.664508969712</v>
       </c>
       <c r="S40" t="n">
-        <v>6.071343246044868</v>
+        <v>6.071343246044867</v>
       </c>
       <c r="T40" t="n">
         <v>1.488540075973442</v>
@@ -34122,19 +34122,19 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7766572833048641</v>
+        <v>0.7766572833048639</v>
       </c>
       <c r="H41" t="n">
-        <v>7.953941402645941</v>
+        <v>7.95394140264594</v>
       </c>
       <c r="I41" t="n">
         <v>29.9420799146108</v>
       </c>
       <c r="J41" t="n">
-        <v>65.91781609889627</v>
+        <v>65.91781609889625</v>
       </c>
       <c r="K41" t="n">
-        <v>98.79371890119118</v>
+        <v>98.79371890119117</v>
       </c>
       <c r="L41" t="n">
         <v>122.5623442351324</v>
@@ -34143,28 +34143,28 @@
         <v>136.3742231971053</v>
       </c>
       <c r="N41" t="n">
-        <v>138.5809007032953</v>
+        <v>138.5809007032952</v>
       </c>
       <c r="O41" t="n">
         <v>130.8580148424325</v>
       </c>
       <c r="P41" t="n">
-        <v>111.6842881608437</v>
+        <v>111.6842881608436</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.8702492024882</v>
+        <v>83.87024920248818</v>
       </c>
       <c r="R41" t="n">
-        <v>48.78669807239921</v>
+        <v>48.7866980723992</v>
       </c>
       <c r="S41" t="n">
-        <v>17.69807784330961</v>
+        <v>17.6980778433096</v>
       </c>
       <c r="T41" t="n">
         <v>3.399817257667044</v>
       </c>
       <c r="U41" t="n">
-        <v>0.06213258266438911</v>
+        <v>0.0621325826643891</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.415548281345617</v>
+        <v>0.4155482813456169</v>
       </c>
       <c r="H42" t="n">
         <v>4.013321559311617</v>
@@ -34210,34 +34210,34 @@
         <v>14.30725442352234</v>
       </c>
       <c r="J42" t="n">
-        <v>39.26019968625411</v>
+        <v>39.2601996862541</v>
       </c>
       <c r="K42" t="n">
         <v>67.10193453641044</v>
       </c>
       <c r="L42" t="n">
-        <v>90.22683187725777</v>
+        <v>90.22683187725775</v>
       </c>
       <c r="M42" t="n">
-        <v>105.2904570760364</v>
+        <v>105.2904570760363</v>
       </c>
       <c r="N42" t="n">
         <v>108.0771821733059</v>
       </c>
       <c r="O42" t="n">
-        <v>98.86950709717405</v>
+        <v>98.86950709717404</v>
       </c>
       <c r="P42" t="n">
         <v>79.35149593519944</v>
       </c>
       <c r="Q42" t="n">
-        <v>53.04437359773174</v>
+        <v>53.04437359773173</v>
       </c>
       <c r="R42" t="n">
         <v>25.80044504705507</v>
       </c>
       <c r="S42" t="n">
-        <v>7.718627067976696</v>
+        <v>7.718627067976695</v>
       </c>
       <c r="T42" t="n">
         <v>1.67495118665185</v>
@@ -34295,28 +34295,28 @@
         <v>40.47562164029912</v>
       </c>
       <c r="L43" t="n">
-        <v>51.79486043078655</v>
+        <v>51.79486043078654</v>
       </c>
       <c r="M43" t="n">
-        <v>54.61041814895758</v>
+        <v>54.61041814895757</v>
       </c>
       <c r="N43" t="n">
-        <v>53.31190446566164</v>
+        <v>53.31190446566163</v>
       </c>
       <c r="O43" t="n">
-        <v>49.24217255581934</v>
+        <v>49.24217255581933</v>
       </c>
       <c r="P43" t="n">
-        <v>42.13518546968227</v>
+        <v>42.13518546968226</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.17221838253485</v>
+        <v>29.17221838253484</v>
       </c>
       <c r="R43" t="n">
-        <v>15.66450896971201</v>
+        <v>15.664508969712</v>
       </c>
       <c r="S43" t="n">
-        <v>6.071343246044868</v>
+        <v>6.071343246044867</v>
       </c>
       <c r="T43" t="n">
         <v>1.488540075973442</v>
@@ -34359,19 +34359,19 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7766572833048641</v>
+        <v>0.7766572833048638</v>
       </c>
       <c r="H44" t="n">
-        <v>7.953941402645941</v>
+        <v>7.953941402645938</v>
       </c>
       <c r="I44" t="n">
-        <v>29.9420799146108</v>
+        <v>29.94207991461079</v>
       </c>
       <c r="J44" t="n">
-        <v>65.91781609889627</v>
+        <v>65.91781609889625</v>
       </c>
       <c r="K44" t="n">
-        <v>98.79371890119118</v>
+        <v>98.79371890119116</v>
       </c>
       <c r="L44" t="n">
         <v>122.5623442351324</v>
@@ -34380,28 +34380,28 @@
         <v>136.3742231971053</v>
       </c>
       <c r="N44" t="n">
-        <v>138.5809007032953</v>
+        <v>138.5809007032952</v>
       </c>
       <c r="O44" t="n">
         <v>130.8580148424325</v>
       </c>
       <c r="P44" t="n">
-        <v>111.6842881608437</v>
+        <v>111.6842881608436</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.8702492024882</v>
+        <v>83.87024920248817</v>
       </c>
       <c r="R44" t="n">
-        <v>48.78669807239921</v>
+        <v>48.7866980723992</v>
       </c>
       <c r="S44" t="n">
-        <v>17.69807784330961</v>
+        <v>17.6980778433096</v>
       </c>
       <c r="T44" t="n">
-        <v>3.399817257667044</v>
+        <v>3.399817257667043</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06213258266438911</v>
+        <v>0.06213258266438909</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.415548281345617</v>
+        <v>0.4155482813456168</v>
       </c>
       <c r="H45" t="n">
-        <v>4.013321559311617</v>
+        <v>4.013321559311616</v>
       </c>
       <c r="I45" t="n">
         <v>14.30725442352234</v>
       </c>
       <c r="J45" t="n">
-        <v>39.26019968625411</v>
+        <v>39.2601996862541</v>
       </c>
       <c r="K45" t="n">
-        <v>67.10193453641044</v>
+        <v>67.10193453641043</v>
       </c>
       <c r="L45" t="n">
-        <v>90.22683187725777</v>
+        <v>90.22683187725774</v>
       </c>
       <c r="M45" t="n">
-        <v>105.2904570760364</v>
+        <v>105.2904570760363</v>
       </c>
       <c r="N45" t="n">
         <v>108.0771821733059</v>
       </c>
       <c r="O45" t="n">
-        <v>98.86950709717405</v>
+        <v>98.86950709717402</v>
       </c>
       <c r="P45" t="n">
-        <v>79.35149593519944</v>
+        <v>79.35149593519942</v>
       </c>
       <c r="Q45" t="n">
-        <v>53.04437359773174</v>
+        <v>53.04437359773173</v>
       </c>
       <c r="R45" t="n">
-        <v>25.80044504705507</v>
+        <v>25.80044504705506</v>
       </c>
       <c r="S45" t="n">
-        <v>7.718627067976696</v>
+        <v>7.718627067976694</v>
       </c>
       <c r="T45" t="n">
         <v>1.67495118665185</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02733870272010639</v>
+        <v>0.02733870272010638</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,40 +34520,40 @@
         <v>0.3483817199086779</v>
       </c>
       <c r="H46" t="n">
-        <v>3.097430200642612</v>
+        <v>3.097430200642611</v>
       </c>
       <c r="I46" t="n">
-        <v>10.47678844961734</v>
+        <v>10.47678844961733</v>
       </c>
       <c r="J46" t="n">
-        <v>24.63058759754353</v>
+        <v>24.63058759754352</v>
       </c>
       <c r="K46" t="n">
-        <v>40.47562164029912</v>
+        <v>40.47562164029911</v>
       </c>
       <c r="L46" t="n">
-        <v>51.79486043078655</v>
+        <v>51.79486043078654</v>
       </c>
       <c r="M46" t="n">
-        <v>54.61041814895758</v>
+        <v>54.61041814895756</v>
       </c>
       <c r="N46" t="n">
-        <v>53.31190446566164</v>
+        <v>53.31190446566163</v>
       </c>
       <c r="O46" t="n">
-        <v>49.24217255581934</v>
+        <v>49.24217255581932</v>
       </c>
       <c r="P46" t="n">
-        <v>42.13518546968227</v>
+        <v>42.13518546968226</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.17221838253485</v>
+        <v>29.17221838253484</v>
       </c>
       <c r="R46" t="n">
-        <v>15.66450896971201</v>
+        <v>15.664508969712</v>
       </c>
       <c r="S46" t="n">
-        <v>6.071343246044868</v>
+        <v>6.071343246044866</v>
       </c>
       <c r="T46" t="n">
         <v>1.488540075973442</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K2" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L2" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M2" t="n">
         <v>464.2785454406509</v>
@@ -34713,13 +34713,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O2" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P2" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q2" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80.17048660913161</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.8085946144126</v>
       </c>
       <c r="L3" t="n">
         <v>413.8895281620462</v>
@@ -34789,16 +34789,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N3" t="n">
-        <v>569.5810543320048</v>
+        <v>242.0222767690056</v>
       </c>
       <c r="O3" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P3" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q3" t="n">
-        <v>122.7017093723956</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L4" t="n">
-        <v>127.0954261044343</v>
+        <v>127.0954261044344</v>
       </c>
       <c r="M4" t="n">
         <v>146.0421320399604</v>
@@ -34871,10 +34871,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P4" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.8085946144125</v>
+        <v>202.8721959815271</v>
       </c>
       <c r="L6" t="n">
         <v>413.8895281620462</v>
@@ -35032,7 +35032,7 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P6" t="n">
-        <v>202.0646563138277</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>202.8721959815271</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L9" t="n">
         <v>413.8895281620462</v>
@@ -35263,7 +35263,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N9" t="n">
-        <v>569.5810543320048</v>
+        <v>322.1927633781374</v>
       </c>
       <c r="O9" t="n">
         <v>444.7844470457648</v>
@@ -35272,7 +35272,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q11" t="n">
-        <v>136.6325338001976</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>17.42030366054463</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
@@ -35506,10 +35506,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
-        <v>344.1715415558448</v>
+        <v>282.235142922959</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P13" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.8085946144125</v>
+        <v>17.42030366054463</v>
       </c>
       <c r="L15" t="n">
         <v>413.8895281620462</v>
@@ -35743,10 +35743,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P15" t="n">
-        <v>282.235142922959</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>17.42030366054463</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L18" t="n">
         <v>413.8895281620462</v>
@@ -35980,7 +35980,7 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P18" t="n">
-        <v>344.1715415558448</v>
+        <v>96.78325060197706</v>
       </c>
       <c r="Q18" t="n">
         <v>185.4518923209819</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K20" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L20" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M20" t="n">
         <v>464.2785454406509</v>
@@ -36135,13 +36135,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O20" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P20" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q20" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>17.42030366054463</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.8085946144126</v>
       </c>
       <c r="L21" t="n">
         <v>413.8895281620462</v>
@@ -36211,10 +36211,10 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N21" t="n">
-        <v>569.5810543320048</v>
+        <v>242.0222767690051</v>
       </c>
       <c r="O21" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P21" t="n">
         <v>344.1715415558448</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L22" t="n">
-        <v>127.0954261044343</v>
+        <v>127.0954261044344</v>
       </c>
       <c r="M22" t="n">
         <v>146.0421320399604</v>
@@ -36293,10 +36293,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O22" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P22" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>100.1229739621189</v>
       </c>
       <c r="K24" t="n">
         <v>298.910573486096</v>
@@ -36445,10 +36445,10 @@
         <v>459.7438472006069</v>
       </c>
       <c r="M24" t="n">
-        <v>595.2231373893964</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>255.62596390168</v>
+        <v>538.3164711195143</v>
       </c>
       <c r="O24" t="n">
         <v>495.0310735458113</v>
@@ -36457,7 +36457,7 @@
         <v>384.4988891429745</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>212.4096562094431</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>298.910573486096</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>459.7438472006069</v>
+        <v>177.3636006267225</v>
       </c>
       <c r="M27" t="n">
         <v>595.2231373893964</v>
@@ -36691,10 +36691,10 @@
         <v>495.0310735458113</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>384.4988891429745</v>
       </c>
       <c r="Q27" t="n">
-        <v>15.61772529243759</v>
+        <v>212.4096562094431</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>100.1229739621189</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>298.910573486096</v>
       </c>
       <c r="L30" t="n">
-        <v>389.7732568361655</v>
+        <v>459.7438472006069</v>
       </c>
       <c r="M30" t="n">
         <v>595.2231373893964</v>
       </c>
       <c r="N30" t="n">
-        <v>624.5071277522171</v>
+        <v>1.362041105597555</v>
       </c>
       <c r="O30" t="n">
         <v>495.0310735458113</v>
       </c>
       <c r="P30" t="n">
-        <v>384.4988891429745</v>
+        <v>326.2301817674946</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>212.4096562094431</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>595.2231373893964</v>
       </c>
       <c r="N33" t="n">
-        <v>624.5071277522171</v>
+        <v>155.5029899395609</v>
       </c>
       <c r="O33" t="n">
-        <v>410.5258248761296</v>
+        <v>495.0310735458113</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>384.4988891429745</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,10 +37311,10 @@
         <v>341.3597512696586</v>
       </c>
       <c r="L35" t="n">
-        <v>473.9617109876034</v>
+        <v>473.9617109876033</v>
       </c>
       <c r="M35" t="n">
-        <v>533.5855022406292</v>
+        <v>533.5855022406284</v>
       </c>
       <c r="N35" t="n">
         <v>520.7337882666445</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>100.1229739621189</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>298.910573486096</v>
       </c>
       <c r="L36" t="n">
         <v>459.7438472006069</v>
       </c>
       <c r="M36" t="n">
-        <v>595.2231373893964</v>
+        <v>536.9544300139167</v>
       </c>
       <c r="N36" t="n">
-        <v>554.5365373877758</v>
+        <v>1.362041105597555</v>
       </c>
       <c r="O36" t="n">
         <v>495.0310735458113</v>
@@ -37405,7 +37405,7 @@
         <v>384.4988891429745</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>212.4096562094431</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>74.41924562478742</v>
+        <v>74.41924562478741</v>
       </c>
       <c r="L37" t="n">
         <v>153.4181729563012</v>
@@ -37548,10 +37548,10 @@
         <v>341.3597512696586</v>
       </c>
       <c r="L38" t="n">
-        <v>473.9617109876034</v>
+        <v>473.9617109876033</v>
       </c>
       <c r="M38" t="n">
-        <v>533.5855022406286</v>
+        <v>533.5855022406284</v>
       </c>
       <c r="N38" t="n">
         <v>520.7337882666445</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>100.1229739621189</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>298.910573486096</v>
       </c>
       <c r="L39" t="n">
         <v>459.7438472006069</v>
       </c>
       <c r="M39" t="n">
-        <v>595.2231373893964</v>
+        <v>536.9544300139167</v>
       </c>
       <c r="N39" t="n">
-        <v>554.5365373877758</v>
+        <v>1.362041105597555</v>
       </c>
       <c r="O39" t="n">
         <v>495.0310735458113</v>
@@ -37642,7 +37642,7 @@
         <v>384.4988891429745</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>212.4096562094431</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>74.41924562478742</v>
+        <v>74.41924562478741</v>
       </c>
       <c r="L40" t="n">
         <v>153.4181729563012</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>138.6436183946601</v>
+        <v>138.6436183946595</v>
       </c>
       <c r="K41" t="n">
         <v>341.3597512696586</v>
       </c>
       <c r="L41" t="n">
-        <v>473.9617109876034</v>
+        <v>473.9617109876033</v>
       </c>
       <c r="M41" t="n">
-        <v>533.5855022406286</v>
+        <v>533.5855022406284</v>
       </c>
       <c r="N41" t="n">
         <v>520.7337882666445</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>100.1229739621189</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>298.910573486096</v>
       </c>
       <c r="L42" t="n">
         <v>459.7438472006069</v>
@@ -37870,7 +37870,7 @@
         <v>595.2231373893964</v>
       </c>
       <c r="N42" t="n">
-        <v>554.5365373877758</v>
+        <v>1.362041105597555</v>
       </c>
       <c r="O42" t="n">
         <v>495.0310735458113</v>
@@ -37879,7 +37879,7 @@
         <v>384.4988891429745</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>154.1409488339634</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>74.41924562478742</v>
+        <v>74.41924562478741</v>
       </c>
       <c r="L43" t="n">
         <v>153.4181729563012</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>138.6436183946601</v>
+        <v>138.6436183946595</v>
       </c>
       <c r="K44" t="n">
         <v>341.3597512696586</v>
       </c>
       <c r="L44" t="n">
-        <v>473.9617109876034</v>
+        <v>473.9617109876033</v>
       </c>
       <c r="M44" t="n">
-        <v>533.5855022406286</v>
+        <v>533.5855022406284</v>
       </c>
       <c r="N44" t="n">
-        <v>520.7337882666445</v>
+        <v>520.7337882666444</v>
       </c>
       <c r="O44" t="n">
         <v>438.9434537038809</v>
@@ -38037,7 +38037,7 @@
         <v>342.1457997326146</v>
       </c>
       <c r="Q44" t="n">
-        <v>179.2563640373741</v>
+        <v>179.256364037374</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>100.1229739621189</v>
       </c>
       <c r="K45" t="n">
-        <v>298.910573486096</v>
+        <v>298.9105734860959</v>
       </c>
       <c r="L45" t="n">
-        <v>459.7438472006069</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>126.2189995767401</v>
+        <v>595.2231373893964</v>
       </c>
       <c r="N45" t="n">
-        <v>624.5071277522171</v>
+        <v>624.507127752217</v>
       </c>
       <c r="O45" t="n">
         <v>495.0310735458113</v>
       </c>
       <c r="P45" t="n">
-        <v>384.4988891429745</v>
+        <v>162.8289423214818</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>212.4096562094431</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>74.41924562478742</v>
+        <v>74.41924562478741</v>
       </c>
       <c r="L46" t="n">
         <v>153.4181729563012</v>
@@ -38189,7 +38189,7 @@
         <v>172.93043148546</v>
       </c>
       <c r="O46" t="n">
-        <v>148.7004013393443</v>
+        <v>148.7004013393442</v>
       </c>
       <c r="P46" t="n">
         <v>105.7397144880033</v>
